--- a/Quote.xlsx
+++ b/Quote.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55BA44DA-4904-41A5-8AF9-087B1D601A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09328A9-EC6F-48F7-A0F4-15AF6B3E9846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
   <si>
     <t>Name</t>
   </si>
@@ -145,15 +145,34 @@
   </si>
   <si>
     <t>IG</t>
+  </si>
+  <si>
+    <t>GBP/USD 1 Year Forward</t>
+  </si>
+  <si>
+    <t>BOE/XUDLDSY</t>
+  </si>
+  <si>
+    <t>Quandl</t>
+  </si>
+  <si>
+    <t>Yahoo</t>
+  </si>
+  <si>
+    <t>DX-Y.NYB</t>
+  </si>
+  <si>
+    <t>US Dollar Index</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0.00;[Red]\-#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -200,7 +219,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -208,6 +227,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -524,7 +544,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -585,15 +605,15 @@
       </c>
       <c r="B3" s="1">
         <f>_xll.xlquotePrice(F3,G3)</f>
-        <v>4455.03</v>
+        <v>4452.78</v>
       </c>
       <c r="C3" s="2">
         <f>_xll.xlquoteChange(F3,G3)</f>
-        <v>-23.75</v>
+        <v>-26.25</v>
       </c>
       <c r="D3" s="3">
         <f>_xll.xlquoteChangePercent(F3,G3)/100</f>
-        <v>-5.3E-3</v>
+        <v>-5.8999999999999999E-3</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
@@ -608,15 +628,15 @@
       </c>
       <c r="B4" s="1">
         <f>_xll.xlquotePrice(F4,G4)</f>
-        <v>4452.25</v>
+        <v>4449.25</v>
       </c>
       <c r="C4" s="2">
         <f>_xll.xlquoteChange(F4,G4)</f>
-        <v>-22</v>
+        <v>-24.75</v>
       </c>
       <c r="D4" s="3">
         <f>_xll.xlquoteChangePercent(F4,G4)/100</f>
-        <v>-4.8999999999999998E-3</v>
+        <v>-5.5000000000000005E-3</v>
       </c>
       <c r="F4" t="s">
         <v>6</v>
@@ -654,15 +674,15 @@
       </c>
       <c r="B6" s="1">
         <f>_xll.xlquotePrice(F6,G6)</f>
-        <v>446.96</v>
+        <v>446.83</v>
       </c>
       <c r="C6" s="2">
         <f>_xll.xlquoteChange(F6,G6)</f>
-        <v>-2.04</v>
+        <v>-2.17</v>
       </c>
       <c r="D6" s="3">
         <f>_xll.xlquoteChangePercent(F6,G6)/100</f>
-        <v>-4.5430000000000002E-3</v>
+        <v>-4.8330000000000005E-3</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>
@@ -729,9 +749,9 @@
         <f>_xll.xlquoteChange(F9,G9)</f>
         <v>1.75</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="3" t="e">
         <f>_xll.xlquoteChangePercent(F9,G9)/100</f>
-        <v>5.9757555062318604E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
@@ -811,24 +831,70 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="B13" s="1">
         <f>_xll.xlquotePrice(F13,G13)</f>
-        <v>46455.935088038401</v>
+        <v>92.667000000000002</v>
       </c>
       <c r="C13" s="2">
         <f>_xll.xlquoteChange(F13,G13)</f>
-        <v>-843.45928910204839</v>
+        <v>3.9001464999999999E-2</v>
       </c>
       <c r="D13" s="3">
         <f>_xll.xlquoteChangePercent(F13,G13)/100</f>
-        <v>-1.7832348600000002E-2</v>
+        <v>4.2105480000000003E-4</v>
       </c>
       <c r="F13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="5">
+        <f>_xll.xlquotePrice(F14,G14)</f>
+        <v>1.3829</v>
+      </c>
+      <c r="C14" s="2">
+        <f>_xll.xlquoteChange(F14,G14)</f>
+        <v>-1.6999999999999999E-3</v>
+      </c>
+      <c r="D14" s="3">
+        <f>_xll.xlquoteChangePercent(F14,G14)/100</f>
+        <v>-1.2277914199046657E-3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <f>_xll.xlquotePrice(F15,G15)</f>
+        <v>46494.847095051002</v>
+      </c>
+      <c r="C15" s="2">
+        <f>_xll.xlquoteChange(F15,G15)</f>
+        <v>-697.84066181071466</v>
+      </c>
+      <c r="D15" s="3">
+        <f>_xll.xlquoteChangePercent(F15,G15)/100</f>
+        <v>-1.4787050600000001E-2</v>
+      </c>
+      <c r="F15" t="s">
         <v>12</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G15" t="s">
         <v>11</v>
       </c>
     </row>
